--- a/api/components/attributes/personal-loan_updated.xlsx
+++ b/api/components/attributes/personal-loan_updated.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4146" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="420">
   <si>
     <t>Path</t>
   </si>
@@ -565,6 +565,12 @@
     <t>message.catalog.providers.payments.collected_by</t>
   </si>
   <si>
+    <t>message.catalog.providers.payments._description</t>
+  </si>
+  <si>
+    <t>BAP/BPP</t>
+  </si>
+  <si>
     <t>select</t>
   </si>
   <si>
@@ -606,9 +612,6 @@
   </si>
   <si>
     <t>Describes a legal purchase order.</t>
-  </si>
-  <si>
-    <t>BAP/BPP</t>
   </si>
   <si>
     <t>message.order.provider._description</t>
@@ -1090,6 +1093,15 @@
     <t>Describes the fulfillment state</t>
   </si>
   <si>
+    <t>message.order.cancellation_terms.fulfillment_state._description</t>
+  </si>
+  <si>
+    <t>message.order.cancellation_terms.fulfillment_state.descriptor._description</t>
+  </si>
+  <si>
+    <t>Describes the descriptor code.</t>
+  </si>
+  <si>
     <t>confirm</t>
   </si>
   <si>
@@ -1168,6 +1180,9 @@
     <t>message.order.documents.descriptor._description</t>
   </si>
   <si>
+    <t>Describes the fulfillments current state name.</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
@@ -1214,9 +1229,6 @@
   </si>
   <si>
     <t>Loan Disbursed</t>
-  </si>
-  <si>
-    <t>Describes the fulfillments current state name.</t>
   </si>
   <si>
     <t>support</t>
@@ -1798,6 +1810,9 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -1820,9 +1835,6 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6101,7 +6113,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>36</v>
@@ -6295,7 +6307,7 @@
     </row>
     <row r="15">
       <c r="A15" s="58" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>44</v>
@@ -6315,7 +6327,7 @@
     </row>
     <row r="16">
       <c r="A16" s="56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>44</v>
@@ -6335,7 +6347,7 @@
     </row>
     <row r="17">
       <c r="A17" s="56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>76</v>
@@ -6344,7 +6356,7 @@
         <v>77</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>58</v>
@@ -6355,7 +6367,7 @@
     </row>
     <row r="18">
       <c r="A18" s="56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>76</v>
@@ -6375,7 +6387,7 @@
     </row>
     <row r="19">
       <c r="A19" s="57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>76</v>
@@ -6416,7 +6428,7 @@
     </row>
     <row r="20">
       <c r="A20" s="43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B20" s="44" t="s">
         <v>44</v>
@@ -6457,7 +6469,7 @@
     </row>
     <row r="21">
       <c r="A21" s="49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>44</v>
@@ -6498,7 +6510,7 @@
     </row>
     <row r="22">
       <c r="A22" s="60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>76</v>
@@ -6539,7 +6551,7 @@
     </row>
     <row r="23">
       <c r="A23" s="89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>76</v>
@@ -6580,7 +6592,7 @@
     </row>
     <row r="24">
       <c r="A24" s="60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>76</v>
@@ -6621,7 +6633,7 @@
     </row>
     <row r="25">
       <c r="A25" s="49" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" s="44" t="s">
         <v>76</v>
@@ -6630,7 +6642,7 @@
         <v>231800.0</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E25" s="47" t="s">
         <v>58</v>
@@ -6662,16 +6674,16 @@
     </row>
     <row r="26">
       <c r="A26" s="49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B26" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E26" s="47" t="s">
         <v>58</v>
@@ -6703,16 +6715,16 @@
     </row>
     <row r="27">
       <c r="A27" s="69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>58</v>
@@ -6723,7 +6735,7 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>44</v>
@@ -6732,7 +6744,7 @@
         <v>231800.0</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>58</v>
@@ -6743,16 +6755,16 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>58</v>
@@ -6763,16 +6775,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>58</v>
@@ -6783,7 +6795,7 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>44</v>
@@ -6792,7 +6804,7 @@
         <v>200000.0</v>
       </c>
       <c r="D31" s="56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>58</v>
@@ -6803,16 +6815,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>58</v>
@@ -6823,16 +6835,16 @@
     </row>
     <row r="33">
       <c r="A33" s="84" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="88" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D33" s="57" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>58</v>
@@ -6864,16 +6876,16 @@
     </row>
     <row r="34">
       <c r="A34" s="85" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="85" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D34" s="87" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>58</v>
@@ -6905,16 +6917,16 @@
     </row>
     <row r="35">
       <c r="A35" s="84" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D35" s="84" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>58</v>
@@ -6945,17 +6957,17 @@
       <c r="AA35" s="25"/>
     </row>
     <row r="36">
-      <c r="A36" s="110" t="s">
-        <v>259</v>
+      <c r="A36" s="111" t="s">
+        <v>260</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>147</v>
       </c>
       <c r="C36" s="88" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D36" s="87" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>58</v>
@@ -6987,16 +6999,16 @@
     </row>
     <row r="37">
       <c r="A37" s="84" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="88" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D37" s="84" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>58</v>
@@ -7028,16 +7040,16 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>58</v>
@@ -7048,7 +7060,7 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>76</v>
@@ -7057,7 +7069,7 @@
         <v>46360.0</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>58</v>
@@ -7068,16 +7080,16 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D40" s="56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>58</v>
@@ -7088,16 +7100,16 @@
     </row>
     <row r="41">
       <c r="A41" s="84" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D41" s="84" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>58</v>
@@ -7129,16 +7141,16 @@
     </row>
     <row r="42">
       <c r="A42" s="84" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D42" s="84" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>58</v>
@@ -7170,7 +7182,7 @@
     </row>
     <row r="43">
       <c r="A43" s="52" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>44</v>
@@ -7179,10 +7191,10 @@
         <v>48</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>50</v>
@@ -7211,7 +7223,7 @@
     </row>
     <row r="44">
       <c r="A44" s="52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>44</v>
@@ -7220,7 +7232,7 @@
         <v>48</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>58</v>
@@ -7252,7 +7264,7 @@
     </row>
     <row r="45">
       <c r="A45" s="52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>44</v>
@@ -7261,10 +7273,10 @@
         <v>48</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>50</v>
@@ -7293,7 +7305,7 @@
     </row>
     <row r="46">
       <c r="A46" s="52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>44</v>
@@ -7334,7 +7346,7 @@
     </row>
     <row r="47">
       <c r="A47" s="52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>147</v>
@@ -7375,7 +7387,7 @@
     </row>
     <row r="48">
       <c r="A48" s="52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>44</v>
@@ -7384,7 +7396,7 @@
         <v>48</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>58</v>
@@ -7416,7 +7428,7 @@
     </row>
     <row r="49">
       <c r="A49" s="52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>147</v>
@@ -7457,7 +7469,7 @@
     </row>
     <row r="50">
       <c r="A50" s="52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>44</v>
@@ -7466,7 +7478,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>58</v>
@@ -7498,7 +7510,7 @@
     </row>
     <row r="51">
       <c r="A51" s="52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>44</v>
@@ -7507,7 +7519,7 @@
         <v>48</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>58</v>
@@ -7539,7 +7551,7 @@
     </row>
     <row r="52">
       <c r="A52" s="52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>44</v>
@@ -7548,7 +7560,7 @@
         <v>48</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>58</v>
@@ -7580,7 +7592,7 @@
     </row>
     <row r="53">
       <c r="A53" s="52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>44</v>
@@ -7589,7 +7601,7 @@
         <v>48</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>58</v>
@@ -7621,7 +7633,7 @@
     </row>
     <row r="54">
       <c r="A54" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>147</v>
@@ -7630,10 +7642,10 @@
         <v>48</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>50</v>
@@ -7662,7 +7674,7 @@
     </row>
     <row r="55" ht="18.75" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>147</v>
@@ -7671,7 +7683,7 @@
         <v>48</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>10</v>
@@ -7703,7 +7715,7 @@
     </row>
     <row r="56">
       <c r="A56" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>147</v>
@@ -7712,7 +7724,7 @@
         <v>48</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>10</v>
@@ -7744,7 +7756,7 @@
     </row>
     <row r="57">
       <c r="A57" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>147</v>
@@ -7753,10 +7765,10 @@
         <v>48</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>50</v>
@@ -7785,7 +7797,7 @@
     </row>
     <row r="58">
       <c r="A58" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>147</v>
@@ -7794,10 +7806,10 @@
         <v>48</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>50</v>
@@ -7826,7 +7838,7 @@
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>147</v>
@@ -7835,7 +7847,7 @@
         <v>48</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>58</v>
@@ -7867,7 +7879,7 @@
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>147</v>
@@ -7876,7 +7888,7 @@
         <v>48</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>58</v>
@@ -7908,7 +7920,7 @@
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>147</v>
@@ -7917,7 +7929,7 @@
         <v>48</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>58</v>
@@ -7949,7 +7961,7 @@
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>147</v>
@@ -7958,7 +7970,7 @@
         <v>48</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>58</v>
@@ -7990,7 +8002,7 @@
     </row>
     <row r="63">
       <c r="A63" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>147</v>
@@ -7999,7 +8011,7 @@
         <v>48</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>58</v>
@@ -8031,130 +8043,130 @@
     </row>
     <row r="64">
       <c r="A64" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="B64" s="111" t="s">
+        <v>308</v>
+      </c>
+      <c r="B64" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="112">
+      <c r="C64" s="113">
         <v>0.03</v>
       </c>
       <c r="D64" s="57" t="s">
-        <v>308</v>
-      </c>
-      <c r="E64" s="113" t="s">
+        <v>309</v>
+      </c>
+      <c r="E64" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="113" t="s">
+      <c r="F64" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="G64" s="113"/>
-      <c r="H64" s="113"/>
-      <c r="I64" s="113"/>
-      <c r="J64" s="113"/>
-      <c r="K64" s="113"/>
-      <c r="L64" s="113"/>
-      <c r="M64" s="113"/>
-      <c r="N64" s="113"/>
-      <c r="O64" s="113"/>
-      <c r="P64" s="113"/>
-      <c r="Q64" s="113"/>
-      <c r="R64" s="113"/>
-      <c r="S64" s="113"/>
-      <c r="T64" s="113"/>
-      <c r="U64" s="113"/>
-      <c r="V64" s="113"/>
-      <c r="W64" s="113"/>
-      <c r="X64" s="113"/>
-      <c r="Y64" s="113"/>
-      <c r="Z64" s="113"/>
-      <c r="AA64" s="113"/>
+      <c r="G64" s="114"/>
+      <c r="H64" s="114"/>
+      <c r="I64" s="114"/>
+      <c r="J64" s="114"/>
+      <c r="K64" s="114"/>
+      <c r="L64" s="114"/>
+      <c r="M64" s="114"/>
+      <c r="N64" s="114"/>
+      <c r="O64" s="114"/>
+      <c r="P64" s="114"/>
+      <c r="Q64" s="114"/>
+      <c r="R64" s="114"/>
+      <c r="S64" s="114"/>
+      <c r="T64" s="114"/>
+      <c r="U64" s="114"/>
+      <c r="V64" s="114"/>
+      <c r="W64" s="114"/>
+      <c r="X64" s="114"/>
+      <c r="Y64" s="114"/>
+      <c r="Z64" s="114"/>
+      <c r="AA64" s="114"/>
     </row>
     <row r="65">
       <c r="A65" s="84" t="s">
-        <v>309</v>
-      </c>
-      <c r="B65" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="B65" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="113" t="s">
+      <c r="C65" s="114" t="s">
         <v>115</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="E65" s="113" t="s">
+        <v>311</v>
+      </c>
+      <c r="E65" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="F65" s="113" t="s">
+      <c r="F65" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="113"/>
-      <c r="H65" s="113"/>
-      <c r="I65" s="113"/>
-      <c r="J65" s="113"/>
-      <c r="K65" s="113"/>
-      <c r="L65" s="113"/>
-      <c r="M65" s="113"/>
-      <c r="N65" s="113"/>
-      <c r="O65" s="113"/>
-      <c r="P65" s="113"/>
-      <c r="Q65" s="113"/>
-      <c r="R65" s="113"/>
-      <c r="S65" s="113"/>
-      <c r="T65" s="113"/>
-      <c r="U65" s="113"/>
-      <c r="V65" s="113"/>
-      <c r="W65" s="113"/>
-      <c r="X65" s="113"/>
-      <c r="Y65" s="113"/>
-      <c r="Z65" s="113"/>
-      <c r="AA65" s="113"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="114"/>
+      <c r="I65" s="114"/>
+      <c r="J65" s="114"/>
+      <c r="K65" s="114"/>
+      <c r="L65" s="114"/>
+      <c r="M65" s="114"/>
+      <c r="N65" s="114"/>
+      <c r="O65" s="114"/>
+      <c r="P65" s="114"/>
+      <c r="Q65" s="114"/>
+      <c r="R65" s="114"/>
+      <c r="S65" s="114"/>
+      <c r="T65" s="114"/>
+      <c r="U65" s="114"/>
+      <c r="V65" s="114"/>
+      <c r="W65" s="114"/>
+      <c r="X65" s="114"/>
+      <c r="Y65" s="114"/>
+      <c r="Z65" s="114"/>
+      <c r="AA65" s="114"/>
     </row>
     <row r="66">
       <c r="A66" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="B66" s="111" t="s">
+        <v>312</v>
+      </c>
+      <c r="B66" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="114" t="s">
-        <v>312</v>
+      <c r="C66" s="115" t="s">
+        <v>313</v>
       </c>
       <c r="D66" s="57" t="s">
-        <v>313</v>
-      </c>
-      <c r="E66" s="113" t="s">
+        <v>314</v>
+      </c>
+      <c r="E66" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="F66" s="113" t="s">
+      <c r="F66" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="113"/>
-      <c r="H66" s="113"/>
-      <c r="I66" s="113"/>
-      <c r="J66" s="113"/>
-      <c r="K66" s="113"/>
-      <c r="L66" s="113"/>
-      <c r="M66" s="113"/>
-      <c r="N66" s="113"/>
-      <c r="O66" s="113"/>
-      <c r="P66" s="113"/>
-      <c r="Q66" s="113"/>
-      <c r="R66" s="113"/>
-      <c r="S66" s="113"/>
-      <c r="T66" s="113"/>
-      <c r="U66" s="113"/>
-      <c r="V66" s="113"/>
-      <c r="W66" s="113"/>
-      <c r="X66" s="113"/>
-      <c r="Y66" s="113"/>
-      <c r="Z66" s="113"/>
-      <c r="AA66" s="113"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="114"/>
+      <c r="J66" s="114"/>
+      <c r="K66" s="114"/>
+      <c r="L66" s="114"/>
+      <c r="M66" s="114"/>
+      <c r="N66" s="114"/>
+      <c r="O66" s="114"/>
+      <c r="P66" s="114"/>
+      <c r="Q66" s="114"/>
+      <c r="R66" s="114"/>
+      <c r="S66" s="114"/>
+      <c r="T66" s="114"/>
+      <c r="U66" s="114"/>
+      <c r="V66" s="114"/>
+      <c r="W66" s="114"/>
+      <c r="X66" s="114"/>
+      <c r="Y66" s="114"/>
+      <c r="Z66" s="114"/>
+      <c r="AA66" s="114"/>
     </row>
     <row r="67" ht="18.75" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>147</v>
@@ -8163,7 +8175,7 @@
         <v>48</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>10</v>
@@ -8195,7 +8207,7 @@
     </row>
     <row r="68">
       <c r="A68" s="52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>44</v>
@@ -8204,7 +8216,7 @@
         <v>48</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>58</v>
@@ -8236,16 +8248,16 @@
     </row>
     <row r="69">
       <c r="A69" s="72" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C69" s="70" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>58</v>
@@ -8256,16 +8268,16 @@
     </row>
     <row r="70">
       <c r="A70" s="72" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C70" s="70" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>58</v>
@@ -8276,16 +8288,16 @@
     </row>
     <row r="71">
       <c r="A71" s="72" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C71" s="70" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>58</v>
@@ -8296,16 +8308,16 @@
     </row>
     <row r="72">
       <c r="A72" s="72" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C72" s="70" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>58</v>
@@ -8316,16 +8328,16 @@
     </row>
     <row r="73">
       <c r="A73" s="72" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C73" s="70" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>58</v>
@@ -8336,16 +8348,16 @@
     </row>
     <row r="74">
       <c r="A74" s="72" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C74" s="107" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>58</v>
@@ -8356,7 +8368,7 @@
     </row>
     <row r="75">
       <c r="A75" s="79" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>147</v>
@@ -8365,7 +8377,7 @@
         <v>48</v>
       </c>
       <c r="D75" s="67" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E75" s="68" t="s">
         <v>58</v>
@@ -8397,7 +8409,7 @@
     </row>
     <row r="76">
       <c r="A76" s="79" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>147</v>
@@ -8406,7 +8418,7 @@
         <v>48</v>
       </c>
       <c r="D76" s="67" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E76" s="68" t="s">
         <v>58</v>
@@ -8438,16 +8450,16 @@
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>10</v>
@@ -8479,7 +8491,7 @@
     </row>
     <row r="78">
       <c r="A78" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>147</v>
@@ -8488,7 +8500,7 @@
         <v>58</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>10</v>
@@ -8560,16 +8572,16 @@
     </row>
     <row r="80">
       <c r="A80" s="55" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>58</v>
@@ -8601,7 +8613,7 @@
     </row>
     <row r="81">
       <c r="A81" s="52" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>7</v>
@@ -8610,10 +8622,10 @@
         <v>48</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>50</v>
@@ -8642,7 +8654,7 @@
     </row>
     <row r="82">
       <c r="A82" s="72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>76</v>
@@ -8662,16 +8674,16 @@
     </row>
     <row r="83">
       <c r="A83" s="72" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C83" s="98" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D83" s="72" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>58</v>
@@ -8682,7 +8694,7 @@
     </row>
     <row r="84">
       <c r="A84" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>44</v>
@@ -8702,16 +8714,16 @@
     </row>
     <row r="85">
       <c r="A85" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="B85" s="115" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" s="116" t="s">
         <v>44</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>10</v>
@@ -8743,16 +8755,16 @@
     </row>
     <row r="86">
       <c r="A86" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B86" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" s="116" t="s">
         <v>44</v>
       </c>
       <c r="C86" s="56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>10</v>
@@ -8783,13 +8795,13 @@
       <c r="AA86" s="1"/>
     </row>
     <row r="87">
-      <c r="A87" s="116" t="s">
-        <v>188</v>
+      <c r="A87" s="117" t="s">
+        <v>189</v>
       </c>
       <c r="B87" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="117" t="s">
+      <c r="C87" s="109" t="s">
         <v>48</v>
       </c>
       <c r="D87" s="94" t="s">
@@ -8824,17 +8836,17 @@
       <c r="AA87" s="1"/>
     </row>
     <row r="88">
-      <c r="A88" s="116" t="s">
-        <v>189</v>
+      <c r="A88" s="117" t="s">
+        <v>190</v>
       </c>
       <c r="B88" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C88" s="117" t="s">
+      <c r="C88" s="109" t="s">
         <v>48</v>
       </c>
       <c r="D88" s="94" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>10</v>
@@ -8865,13 +8877,13 @@
       <c r="AA88" s="1"/>
     </row>
     <row r="89">
-      <c r="A89" s="116" t="s">
-        <v>191</v>
+      <c r="A89" s="117" t="s">
+        <v>192</v>
       </c>
       <c r="B89" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C89" s="117" t="s">
+      <c r="C89" s="109" t="s">
         <v>48</v>
       </c>
       <c r="D89" s="94" t="s">
@@ -8907,16 +8919,16 @@
     </row>
     <row r="90">
       <c r="A90" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B90" s="95" t="s">
         <v>76</v>
       </c>
       <c r="C90" s="42" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E90" s="96" t="s">
         <v>58</v>
@@ -8948,16 +8960,16 @@
     </row>
     <row r="91">
       <c r="A91" s="56" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B91" s="75" t="s">
         <v>44</v>
       </c>
       <c r="C91" s="56" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D91" s="56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>58</v>
@@ -8989,7 +9001,7 @@
     </row>
     <row r="92">
       <c r="A92" s="56" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B92" s="75" t="s">
         <v>44</v>
@@ -8998,7 +9010,7 @@
         <v>48</v>
       </c>
       <c r="D92" s="56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>58</v>
@@ -9030,16 +9042,16 @@
     </row>
     <row r="93">
       <c r="A93" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C93" s="70" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>58</v>
@@ -9050,16 +9062,16 @@
     </row>
     <row r="94">
       <c r="A94" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C94" s="70" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>58</v>
@@ -9070,16 +9082,16 @@
     </row>
     <row r="95">
       <c r="A95" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C95" s="70" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>58</v>
@@ -9090,16 +9102,16 @@
     </row>
     <row r="96">
       <c r="A96" s="6" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C96" s="70" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>58</v>
@@ -9110,16 +9122,16 @@
     </row>
     <row r="97">
       <c r="A97" s="6" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>58</v>
@@ -9148,6 +9160,129 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="109" t="s">
+        <v>344</v>
+      </c>
+      <c r="B98" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" s="109" t="s">
+        <v>343</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="109" t="s">
+        <v>345</v>
+      </c>
+      <c r="B99" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" s="109" t="s">
+        <v>346</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9530,7 +9665,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>36</v>
@@ -9724,7 +9859,7 @@
     </row>
     <row r="15">
       <c r="A15" s="118" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>7</v>
@@ -9733,7 +9868,7 @@
         <v>93</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -9744,7 +9879,7 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>7</v>
@@ -9753,7 +9888,7 @@
         <v>9.1987654321E11</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
@@ -9764,16 +9899,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>10</v>
@@ -9784,7 +9919,7 @@
     </row>
     <row r="18">
       <c r="A18" s="119" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>7</v>
@@ -9793,7 +9928,7 @@
         <v>48</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>10</v>
@@ -14141,7 +14276,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>36</v>
@@ -14335,7 +14470,7 @@
     </row>
     <row r="15">
       <c r="A15" s="118" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>7</v>
@@ -14344,7 +14479,7 @@
         <v>93</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -14355,7 +14490,7 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>7</v>
@@ -14364,7 +14499,7 @@
         <v>9.1987654321E11</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
@@ -14375,16 +14510,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>10</v>
@@ -14395,7 +14530,7 @@
     </row>
     <row r="18">
       <c r="A18" s="118" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>7</v>
@@ -14404,7 +14539,7 @@
         <v>93</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>10</v>
@@ -14415,16 +14550,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>10</v>
@@ -14435,16 +14570,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>10</v>
@@ -14455,16 +14590,16 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="107" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
@@ -14475,7 +14610,7 @@
     </row>
     <row r="22">
       <c r="A22" s="119" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>7</v>
@@ -14484,7 +14619,7 @@
         <v>48</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>10</v>
@@ -18813,7 +18948,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>36</v>
@@ -19007,16 +19142,16 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="120" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -19027,16 +19162,16 @@
     </row>
     <row r="16">
       <c r="A16" s="121" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="120" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>58</v>
@@ -19047,16 +19182,16 @@
     </row>
     <row r="17">
       <c r="A17" s="122" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C17" s="120" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>58</v>
@@ -19067,7 +19202,7 @@
     </row>
     <row r="18">
       <c r="A18" s="122" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>147</v>
@@ -19077,7 +19212,7 @@
         <v>-9876543119</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>58</v>
@@ -19088,7 +19223,7 @@
     </row>
     <row r="19">
       <c r="A19" s="52" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>44</v>
@@ -19097,10 +19232,10 @@
         <v>48</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>50</v>
@@ -19129,7 +19264,7 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>147</v>
@@ -19138,10 +19273,10 @@
         <v>48</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>50</v>
@@ -19170,7 +19305,7 @@
     </row>
     <row r="21" ht="18.75" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>147</v>
@@ -19179,7 +19314,7 @@
         <v>48</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>10</v>
@@ -19211,7 +19346,7 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>147</v>
@@ -19220,7 +19355,7 @@
         <v>48</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>10</v>
@@ -19252,7 +19387,7 @@
     </row>
     <row r="23" ht="18.75" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>147</v>
@@ -19261,7 +19396,7 @@
         <v>48</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>10</v>
@@ -19333,16 +19468,16 @@
     </row>
     <row r="25">
       <c r="A25" s="122" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C25" s="120" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>10</v>
@@ -19353,16 +19488,16 @@
     </row>
     <row r="26">
       <c r="A26" s="56" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>58</v>
@@ -19394,7 +19529,7 @@
     </row>
     <row r="27">
       <c r="A27" s="123" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>147</v>
@@ -19403,7 +19538,7 @@
         <v>20000.0</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>10</v>
@@ -19414,16 +19549,16 @@
     </row>
     <row r="28">
       <c r="A28" s="123" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="120" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>10</v>
@@ -19434,16 +19569,16 @@
     </row>
     <row r="29">
       <c r="A29" s="123" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C29" s="120" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
@@ -19454,16 +19589,16 @@
     </row>
     <row r="30">
       <c r="A30" s="123" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C30" s="120" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>10</v>
@@ -23660,7 +23795,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>36</v>
@@ -23854,16 +23989,16 @@
     </row>
     <row r="15">
       <c r="A15" s="55" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>58</v>
@@ -23895,7 +24030,7 @@
     </row>
     <row r="16">
       <c r="A16" s="58" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>44</v>
@@ -23915,7 +24050,7 @@
     </row>
     <row r="17">
       <c r="A17" s="56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>44</v>
@@ -23935,7 +24070,7 @@
     </row>
     <row r="18">
       <c r="A18" s="56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>76</v>
@@ -23944,7 +24079,7 @@
         <v>77</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>58</v>
@@ -23955,7 +24090,7 @@
     </row>
     <row r="19">
       <c r="A19" s="56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>76</v>
@@ -23975,7 +24110,7 @@
     </row>
     <row r="20">
       <c r="A20" s="57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>76</v>
@@ -24016,7 +24151,7 @@
     </row>
     <row r="21">
       <c r="A21" s="43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>44</v>
@@ -24057,7 +24192,7 @@
     </row>
     <row r="22">
       <c r="A22" s="49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>44</v>
@@ -24098,7 +24233,7 @@
     </row>
     <row r="23">
       <c r="A23" s="60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>76</v>
@@ -24139,7 +24274,7 @@
     </row>
     <row r="24">
       <c r="A24" s="89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>76</v>
@@ -24180,7 +24315,7 @@
     </row>
     <row r="25">
       <c r="A25" s="60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B25" s="44" t="s">
         <v>76</v>
@@ -24221,7 +24356,7 @@
     </row>
     <row r="26">
       <c r="A26" s="49" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B26" s="44" t="s">
         <v>76</v>
@@ -24230,7 +24365,7 @@
         <v>231800.0</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E26" s="47" t="s">
         <v>58</v>
@@ -24262,16 +24397,16 @@
     </row>
     <row r="27">
       <c r="A27" s="49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B27" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>58</v>
@@ -24303,16 +24438,16 @@
     </row>
     <row r="28">
       <c r="A28" s="41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>58</v>
@@ -24323,7 +24458,7 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>44</v>
@@ -24332,7 +24467,7 @@
         <v>231800.0</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>58</v>
@@ -24343,16 +24478,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D30" s="56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>58</v>
@@ -24363,16 +24498,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>58</v>
@@ -24383,7 +24518,7 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>76</v>
@@ -24392,7 +24527,7 @@
         <v>200000.0</v>
       </c>
       <c r="D32" s="56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>58</v>
@@ -24403,16 +24538,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>58</v>
@@ -24423,16 +24558,16 @@
     </row>
     <row r="34">
       <c r="A34" s="49" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B34" s="44" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D34" s="62" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E34" s="47" t="s">
         <v>58</v>
@@ -24464,16 +24599,16 @@
     </row>
     <row r="35">
       <c r="A35" s="60" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B35" s="44" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="60" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D35" s="89" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E35" s="47" t="s">
         <v>58</v>
@@ -24505,16 +24640,16 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>58</v>
@@ -24525,16 +24660,16 @@
     </row>
     <row r="37">
       <c r="A37" s="90" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D37" s="91" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>58</v>
@@ -24545,16 +24680,16 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>58</v>
@@ -24565,16 +24700,16 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>58</v>
@@ -24585,7 +24720,7 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>76</v>
@@ -24594,7 +24729,7 @@
         <v>46360.0</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>58</v>
@@ -24605,16 +24740,16 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D41" s="56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>58</v>
@@ -24625,16 +24760,16 @@
     </row>
     <row r="42">
       <c r="A42" s="84" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D42" s="84" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>58</v>
@@ -24666,16 +24801,16 @@
     </row>
     <row r="43">
       <c r="A43" s="84" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="88" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D43" s="84" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>58</v>
@@ -24707,7 +24842,7 @@
     </row>
     <row r="44">
       <c r="A44" s="84" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>76</v>
@@ -24716,7 +24851,7 @@
         <v>0.03</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>58</v>
@@ -24748,7 +24883,7 @@
     </row>
     <row r="45">
       <c r="A45" s="84" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>76</v>
@@ -24757,7 +24892,7 @@
         <v>115</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>58</v>
@@ -24789,16 +24924,16 @@
     </row>
     <row r="46">
       <c r="A46" s="84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C46" s="93" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D46" s="84" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>58</v>
@@ -24830,7 +24965,7 @@
     </row>
     <row r="47">
       <c r="A47" s="52" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>44</v>
@@ -24839,10 +24974,10 @@
         <v>48</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>50</v>
@@ -24871,7 +25006,7 @@
     </row>
     <row r="48">
       <c r="A48" s="52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>44</v>
@@ -24880,7 +25015,7 @@
         <v>48</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>58</v>
@@ -24912,7 +25047,7 @@
     </row>
     <row r="49">
       <c r="A49" s="52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>44</v>
@@ -24921,10 +25056,10 @@
         <v>48</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>50</v>
@@ -24953,7 +25088,7 @@
     </row>
     <row r="50">
       <c r="A50" s="52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>44</v>
@@ -24994,7 +25129,7 @@
     </row>
     <row r="51">
       <c r="A51" s="52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>76</v>
@@ -25035,7 +25170,7 @@
     </row>
     <row r="52">
       <c r="A52" s="52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>44</v>
@@ -25044,7 +25179,7 @@
         <v>48</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>58</v>
@@ -25076,7 +25211,7 @@
     </row>
     <row r="53">
       <c r="A53" s="52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>76</v>
@@ -25117,7 +25252,7 @@
     </row>
     <row r="54">
       <c r="A54" s="52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>44</v>
@@ -25126,7 +25261,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>58</v>
@@ -25158,7 +25293,7 @@
     </row>
     <row r="55">
       <c r="A55" s="52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>44</v>
@@ -25167,7 +25302,7 @@
         <v>48</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>58</v>
@@ -25199,7 +25334,7 @@
     </row>
     <row r="56">
       <c r="A56" s="52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>44</v>
@@ -25208,7 +25343,7 @@
         <v>48</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>58</v>
@@ -25240,7 +25375,7 @@
     </row>
     <row r="57">
       <c r="A57" s="52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>44</v>
@@ -25249,7 +25384,7 @@
         <v>48</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>58</v>
@@ -25281,7 +25416,7 @@
     </row>
     <row r="58">
       <c r="A58" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>44</v>
@@ -25290,10 +25425,10 @@
         <v>48</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>50</v>
@@ -25322,7 +25457,7 @@
     </row>
     <row r="59" ht="18.75" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>44</v>
@@ -25331,7 +25466,7 @@
         <v>48</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>10</v>
@@ -25363,7 +25498,7 @@
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>44</v>
@@ -25372,7 +25507,7 @@
         <v>48</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>10</v>
@@ -25404,7 +25539,7 @@
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>44</v>
@@ -25413,10 +25548,10 @@
         <v>48</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>50</v>
@@ -25445,7 +25580,7 @@
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>76</v>
@@ -25454,10 +25589,10 @@
         <v>48</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>50</v>
@@ -25486,7 +25621,7 @@
     </row>
     <row r="63">
       <c r="A63" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>76</v>
@@ -25495,7 +25630,7 @@
         <v>48</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>58</v>
@@ -25527,7 +25662,7 @@
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>76</v>
@@ -25536,7 +25671,7 @@
         <v>48</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>58</v>
@@ -25568,7 +25703,7 @@
     </row>
     <row r="65">
       <c r="A65" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>44</v>
@@ -25577,7 +25712,7 @@
         <v>48</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>58</v>
@@ -25609,7 +25744,7 @@
     </row>
     <row r="66">
       <c r="A66" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>76</v>
@@ -25618,7 +25753,7 @@
         <v>48</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>58</v>
@@ -25650,7 +25785,7 @@
     </row>
     <row r="67">
       <c r="A67" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>76</v>
@@ -25659,7 +25794,7 @@
         <v>48</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>58</v>
@@ -25691,7 +25826,7 @@
     </row>
     <row r="68" ht="18.75" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>44</v>
@@ -25700,7 +25835,7 @@
         <v>48</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>10</v>
@@ -25732,7 +25867,7 @@
     </row>
     <row r="69">
       <c r="A69" s="52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>44</v>
@@ -25741,7 +25876,7 @@
         <v>48</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>10</v>
@@ -25773,16 +25908,16 @@
     </row>
     <row r="70">
       <c r="A70" s="72" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="70" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>58</v>
@@ -25793,16 +25928,16 @@
     </row>
     <row r="71">
       <c r="A71" s="72" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="70" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>58</v>
@@ -25813,16 +25948,16 @@
     </row>
     <row r="72">
       <c r="A72" s="72" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="70" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>58</v>
@@ -25833,16 +25968,16 @@
     </row>
     <row r="73">
       <c r="A73" s="72" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="70" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>58</v>
@@ -25853,16 +25988,16 @@
     </row>
     <row r="74">
       <c r="A74" s="72" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="70" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>58</v>
@@ -25873,16 +26008,16 @@
     </row>
     <row r="75">
       <c r="A75" s="72" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="107" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>58</v>
@@ -25893,7 +26028,7 @@
     </row>
     <row r="76">
       <c r="A76" s="79" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B76" s="80" t="s">
         <v>7</v>
@@ -25902,7 +26037,7 @@
         <v>48</v>
       </c>
       <c r="D76" s="67" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E76" s="68" t="s">
         <v>58</v>
@@ -25934,7 +26069,7 @@
     </row>
     <row r="77">
       <c r="A77" s="79" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B77" s="80" t="s">
         <v>7</v>
@@ -25943,7 +26078,7 @@
         <v>48</v>
       </c>
       <c r="D77" s="67" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E77" s="68" t="s">
         <v>58</v>
@@ -25975,16 +26110,16 @@
     </row>
     <row r="78">
       <c r="A78" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B78" s="75" t="s">
         <v>44</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>10</v>
@@ -26016,7 +26151,7 @@
     </row>
     <row r="79">
       <c r="A79" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B79" s="75" t="s">
         <v>44</v>
@@ -26025,7 +26160,7 @@
         <v>58</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>10</v>
@@ -26097,7 +26232,7 @@
     </row>
     <row r="81">
       <c r="A81" s="72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>76</v>
@@ -26117,16 +26252,16 @@
     </row>
     <row r="82">
       <c r="A82" s="72" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C82" s="98" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D82" s="72" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>58</v>
@@ -26137,16 +26272,16 @@
     </row>
     <row r="83">
       <c r="A83" s="74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B83" s="75" t="s">
         <v>76</v>
       </c>
       <c r="C83" s="56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D83" s="56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>58</v>
@@ -26177,16 +26312,16 @@
     </row>
     <row r="84">
       <c r="A84" s="56" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B84" s="75" t="s">
         <v>44</v>
       </c>
       <c r="C84" s="56" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D84" s="56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>58</v>
@@ -26218,7 +26353,7 @@
     </row>
     <row r="85">
       <c r="A85" s="56" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B85" s="75" t="s">
         <v>44</v>
@@ -26227,7 +26362,7 @@
         <v>48</v>
       </c>
       <c r="D85" s="56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>58</v>
@@ -26259,16 +26394,16 @@
     </row>
     <row r="86">
       <c r="A86" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B86" s="95" t="s">
         <v>76</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E86" s="96" t="s">
         <v>58</v>
@@ -26300,16 +26435,16 @@
     </row>
     <row r="87">
       <c r="A87" s="72" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C87" s="98" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D87" s="72" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>58</v>
@@ -26320,7 +26455,7 @@
     </row>
     <row r="88">
       <c r="A88" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>44</v>
@@ -26337,6 +26472,129 @@
       <c r="F88" s="3" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="109" t="s">
+        <v>344</v>
+      </c>
+      <c r="B89" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="109" t="s">
+        <v>343</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="109" t="s">
+        <v>345</v>
+      </c>
+      <c r="B90" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="109" t="s">
+        <v>346</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="B91" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D91" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -28253,9 +28511,24 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="15"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="15"/>
+      <c r="A63" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="15"/>
@@ -33140,7 +33413,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>36</v>
@@ -33334,7 +33607,7 @@
     </row>
     <row r="15">
       <c r="A15" s="41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>44</v>
@@ -33354,7 +33627,7 @@
     </row>
     <row r="16">
       <c r="A16" s="43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>44</v>
@@ -33394,16 +33667,16 @@
     </row>
     <row r="17">
       <c r="A17" s="49" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E17" s="47" t="s">
         <v>10</v>
@@ -33434,16 +33707,16 @@
     </row>
     <row r="18">
       <c r="A18" s="46" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>10</v>
@@ -33474,16 +33747,16 @@
     </row>
     <row r="19">
       <c r="A19" s="43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E19" s="47" t="s">
         <v>10</v>
@@ -33514,7 +33787,7 @@
     </row>
     <row r="20">
       <c r="A20" s="52" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>44</v>
@@ -33523,10 +33796,10 @@
         <v>48</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>50</v>
@@ -33554,7 +33827,7 @@
     </row>
     <row r="21">
       <c r="A21" s="52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>44</v>
@@ -33563,7 +33836,7 @@
         <v>48</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>58</v>
@@ -33594,7 +33867,7 @@
     </row>
     <row r="22">
       <c r="A22" s="52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>44</v>
@@ -33603,10 +33876,10 @@
         <v>48</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>50</v>
@@ -33634,7 +33907,7 @@
     </row>
     <row r="23">
       <c r="A23" s="52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>44</v>
@@ -33674,7 +33947,7 @@
     </row>
     <row r="24">
       <c r="A24" s="52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>44</v>
@@ -33683,7 +33956,7 @@
         <v>48</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>10</v>
@@ -33714,7 +33987,7 @@
     </row>
     <row r="25">
       <c r="A25" s="52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>44</v>
@@ -38022,7 +38295,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>36</v>
@@ -38216,7 +38489,7 @@
     </row>
     <row r="15">
       <c r="A15" s="55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>44</v>
@@ -38236,7 +38509,7 @@
     </row>
     <row r="16">
       <c r="A16" s="56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>44</v>
@@ -38256,7 +38529,7 @@
     </row>
     <row r="17">
       <c r="A17" s="56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>76</v>
@@ -38265,7 +38538,7 @@
         <v>77</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>58</v>
@@ -38276,7 +38549,7 @@
     </row>
     <row r="18">
       <c r="A18" s="56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>76</v>
@@ -38296,7 +38569,7 @@
     </row>
     <row r="19">
       <c r="A19" s="57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>76</v>
@@ -38336,7 +38609,7 @@
     </row>
     <row r="20">
       <c r="A20" s="58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>44</v>
@@ -38356,7 +38629,7 @@
     </row>
     <row r="21">
       <c r="A21" s="56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>44</v>
@@ -38376,7 +38649,7 @@
     </row>
     <row r="22">
       <c r="A22" s="59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>76</v>
@@ -38396,7 +38669,7 @@
     </row>
     <row r="23">
       <c r="A23" s="59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>76</v>
@@ -38416,7 +38689,7 @@
     </row>
     <row r="24">
       <c r="A24" s="60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>76</v>
@@ -38456,7 +38729,7 @@
     </row>
     <row r="25">
       <c r="A25" s="62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B25" s="44" t="s">
         <v>76</v>
@@ -38496,7 +38769,7 @@
     </row>
     <row r="26">
       <c r="A26" s="62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B26" s="44" t="s">
         <v>76</v>
@@ -38536,7 +38809,7 @@
     </row>
     <row r="27">
       <c r="A27" s="62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B27" s="44" t="s">
         <v>76</v>
@@ -38576,7 +38849,7 @@
     </row>
     <row r="28">
       <c r="A28" s="62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B28" s="44" t="s">
         <v>76</v>
@@ -38616,13 +38889,13 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>113</v>
@@ -38636,13 +38909,13 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>116</v>
@@ -38656,7 +38929,7 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>76</v>
@@ -38676,7 +38949,7 @@
     </row>
     <row r="32">
       <c r="A32" s="52" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>44</v>
@@ -38685,10 +38958,10 @@
         <v>48</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>50</v>
@@ -38716,7 +38989,7 @@
     </row>
     <row r="33">
       <c r="A33" s="52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>44</v>
@@ -38725,7 +38998,7 @@
         <v>48</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>58</v>
@@ -38756,7 +39029,7 @@
     </row>
     <row r="34">
       <c r="A34" s="52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>44</v>
@@ -38765,10 +39038,10 @@
         <v>48</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>50</v>
@@ -38796,7 +39069,7 @@
     </row>
     <row r="35">
       <c r="A35" s="52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>44</v>
@@ -38836,7 +39109,7 @@
     </row>
     <row r="36">
       <c r="A36" s="52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>44</v>
@@ -38876,7 +39149,7 @@
     </row>
     <row r="37">
       <c r="A37" s="52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>44</v>
@@ -38916,7 +39189,7 @@
     </row>
     <row r="38">
       <c r="A38" s="52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>147</v>
@@ -38956,7 +39229,7 @@
     </row>
     <row r="39">
       <c r="A39" s="52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>44</v>
@@ -38965,7 +39238,7 @@
         <v>48</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>58</v>
@@ -38996,7 +39269,7 @@
     </row>
     <row r="40">
       <c r="A40" s="52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>147</v>
@@ -39036,7 +39309,7 @@
     </row>
     <row r="41">
       <c r="A41" s="52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>147</v>
@@ -39076,7 +39349,7 @@
     </row>
     <row r="42">
       <c r="A42" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>147</v>
@@ -39116,16 +39389,16 @@
     </row>
     <row r="43">
       <c r="A43" s="69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>58</v>
@@ -39136,7 +39409,7 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>76</v>
@@ -39145,7 +39418,7 @@
         <v>231800.0</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>58</v>
@@ -39156,16 +39429,16 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C45" s="70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D45" s="56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>58</v>
@@ -39176,16 +39449,16 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C46" s="70" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>58</v>
@@ -39196,7 +39469,7 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>76</v>
@@ -39205,7 +39478,7 @@
         <v>200000.0</v>
       </c>
       <c r="D47" s="56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>58</v>
@@ -39216,16 +39489,16 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C48" s="70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>58</v>
@@ -39236,7 +39509,7 @@
     </row>
     <row r="49">
       <c r="A49" s="52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>76</v>
@@ -39245,7 +39518,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>58</v>
@@ -39276,7 +39549,7 @@
     </row>
     <row r="50">
       <c r="A50" s="52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>76</v>
@@ -39285,7 +39558,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>58</v>
@@ -39316,7 +39589,7 @@
     </row>
     <row r="51">
       <c r="A51" s="52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>76</v>
@@ -39325,7 +39598,7 @@
         <v>48</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>58</v>
@@ -39356,7 +39629,7 @@
     </row>
     <row r="52">
       <c r="A52" s="52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>76</v>
@@ -39365,7 +39638,7 @@
         <v>48</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>58</v>
@@ -39396,7 +39669,7 @@
     </row>
     <row r="53">
       <c r="A53" s="52" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>76</v>
@@ -39405,7 +39678,7 @@
         <v>48</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>58</v>
@@ -39436,16 +39709,16 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B54" s="71" t="s">
         <v>147</v>
       </c>
       <c r="C54" s="70" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>10</v>
@@ -39456,16 +39729,16 @@
     </row>
     <row r="55">
       <c r="A55" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B55" s="71" t="s">
         <v>147</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>10</v>
@@ -39476,7 +39749,7 @@
     </row>
     <row r="56">
       <c r="A56" s="52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>147</v>
@@ -39485,7 +39758,7 @@
         <v>48</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>58</v>
@@ -39556,7 +39829,7 @@
     </row>
     <row r="58">
       <c r="A58" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>44</v>
@@ -39565,7 +39838,7 @@
         <v>48</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>58</v>
@@ -39576,7 +39849,7 @@
     </row>
     <row r="59">
       <c r="A59" s="72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>76</v>
@@ -39596,7 +39869,7 @@
     </row>
     <row r="60">
       <c r="A60" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>44</v>
@@ -39616,7 +39889,7 @@
     </row>
     <row r="61">
       <c r="A61" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>44</v>
@@ -39625,7 +39898,7 @@
         <v>232800.0</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>58</v>
@@ -39636,16 +39909,16 @@
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>58</v>
@@ -39656,7 +39929,7 @@
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>44</v>
@@ -39676,16 +39949,16 @@
     </row>
     <row r="64">
       <c r="A64" s="73" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C64" s="70" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>58</v>
@@ -39696,7 +39969,7 @@
     </row>
     <row r="65">
       <c r="A65" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>44</v>
@@ -39716,7 +39989,7 @@
     </row>
     <row r="66">
       <c r="A66" s="37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>44</v>
@@ -39736,16 +40009,16 @@
     </row>
     <row r="67">
       <c r="A67" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>58</v>
@@ -43678,7 +43951,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>36</v>
@@ -43877,7 +44150,7 @@
     </row>
     <row r="15">
       <c r="A15" s="41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B15" s="71" t="s">
         <v>44</v>
@@ -43897,7 +44170,7 @@
     </row>
     <row r="16">
       <c r="A16" s="41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" s="71" t="s">
         <v>44</v>
@@ -43917,16 +44190,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B17" s="71" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>10</v>
@@ -43937,16 +44210,16 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" s="71" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>10</v>
@@ -43957,16 +44230,16 @@
     </row>
     <row r="19">
       <c r="A19" s="43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E19" s="47" t="s">
         <v>10</v>
@@ -43998,7 +44271,7 @@
     </row>
     <row r="20">
       <c r="A20" s="52" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>44</v>
@@ -44007,10 +44280,10 @@
         <v>48</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>50</v>
@@ -44039,7 +44312,7 @@
     </row>
     <row r="21">
       <c r="A21" s="52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>44</v>
@@ -44048,7 +44321,7 @@
         <v>48</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>58</v>
@@ -44080,7 +44353,7 @@
     </row>
     <row r="22">
       <c r="A22" s="52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>44</v>
@@ -44089,10 +44362,10 @@
         <v>48</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>50</v>
@@ -44121,7 +44394,7 @@
     </row>
     <row r="23">
       <c r="A23" s="52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>44</v>
@@ -44162,7 +44435,7 @@
     </row>
     <row r="24">
       <c r="A24" s="52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>44</v>
@@ -44171,7 +44444,7 @@
         <v>48</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>10</v>
@@ -44203,7 +44476,7 @@
     </row>
     <row r="25">
       <c r="A25" s="52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>44</v>
@@ -44244,16 +44517,16 @@
     </row>
     <row r="26">
       <c r="A26" s="74" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>58</v>
@@ -44285,16 +44558,16 @@
     </row>
     <row r="27">
       <c r="A27" s="56" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B27" s="75" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D27" s="56" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>10</v>
@@ -44326,16 +44599,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" s="75" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>10</v>
@@ -44367,7 +44640,7 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B29" s="75" t="s">
         <v>44</v>
@@ -44376,7 +44649,7 @@
         <v>58</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>10</v>
@@ -44408,16 +44681,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>10</v>
@@ -44449,16 +44722,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>10</v>
@@ -44490,16 +44763,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>10</v>
@@ -44531,7 +44804,7 @@
     </row>
     <row r="33">
       <c r="A33" s="76" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B33" s="77" t="s">
         <v>44</v>
@@ -44540,10 +44813,10 @@
         <v>48</v>
       </c>
       <c r="D33" s="76" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E33" s="78" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F33" s="68" t="s">
         <v>50</v>
@@ -44572,7 +44845,7 @@
     </row>
     <row r="34">
       <c r="A34" s="79" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B34" s="80" t="s">
         <v>147</v>
@@ -44581,10 +44854,10 @@
         <v>48</v>
       </c>
       <c r="D34" s="79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F34" s="68" t="s">
         <v>50</v>
@@ -48848,7 +49121,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>36</v>
@@ -49042,7 +49315,7 @@
     </row>
     <row r="15">
       <c r="A15" s="58" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>44</v>
@@ -49062,7 +49335,7 @@
     </row>
     <row r="16">
       <c r="A16" s="56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>44</v>
@@ -49082,7 +49355,7 @@
     </row>
     <row r="17">
       <c r="A17" s="56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>76</v>
@@ -49091,7 +49364,7 @@
         <v>77</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>58</v>
@@ -49102,7 +49375,7 @@
     </row>
     <row r="18">
       <c r="A18" s="56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>76</v>
@@ -49122,7 +49395,7 @@
     </row>
     <row r="19">
       <c r="A19" s="57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>76</v>
@@ -49163,7 +49436,7 @@
     </row>
     <row r="20">
       <c r="A20" s="82" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>44</v>
@@ -49204,7 +49477,7 @@
     </row>
     <row r="21">
       <c r="A21" s="84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>44</v>
@@ -49245,7 +49518,7 @@
     </row>
     <row r="22">
       <c r="A22" s="85" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>76</v>
@@ -49286,7 +49559,7 @@
     </row>
     <row r="23">
       <c r="A23" s="87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>76</v>
@@ -49327,7 +49600,7 @@
     </row>
     <row r="24">
       <c r="A24" s="85" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>76</v>
@@ -49368,7 +49641,7 @@
     </row>
     <row r="25">
       <c r="A25" s="84" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>44</v>
@@ -49377,7 +49650,7 @@
         <v>3.02318E7</v>
       </c>
       <c r="D25" s="84" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>58</v>
@@ -49409,16 +49682,16 @@
     </row>
     <row r="26">
       <c r="A26" s="84" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="88" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D26" s="57" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>58</v>
@@ -49450,17 +49723,17 @@
     </row>
     <row r="27">
       <c r="A27" s="69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="53"/>
       <c r="E27" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
@@ -49489,7 +49762,7 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>44</v>
@@ -49498,7 +49771,7 @@
         <v>231800.0</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>58</v>
@@ -49509,16 +49782,16 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>58</v>
@@ -49529,16 +49802,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>58</v>
@@ -49549,7 +49822,7 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>44</v>
@@ -49558,7 +49831,7 @@
         <v>200000.0</v>
       </c>
       <c r="D31" s="56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>58</v>
@@ -49569,16 +49842,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>58</v>
@@ -49589,16 +49862,16 @@
     </row>
     <row r="33">
       <c r="A33" s="49" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B33" s="44" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D33" s="62" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E33" s="47" t="s">
         <v>58</v>
@@ -49630,16 +49903,16 @@
     </row>
     <row r="34">
       <c r="A34" s="60" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B34" s="44" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D34" s="89" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E34" s="47" t="s">
         <v>58</v>
@@ -49671,16 +49944,16 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>58</v>
@@ -49691,16 +49964,16 @@
     </row>
     <row r="36">
       <c r="A36" s="90" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>58</v>
@@ -49711,16 +49984,16 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>58</v>
@@ -49731,16 +50004,16 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>58</v>
@@ -49751,7 +50024,7 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>76</v>
@@ -49760,7 +50033,7 @@
         <v>46360.0</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>58</v>
@@ -49771,16 +50044,16 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D40" s="56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>58</v>
@@ -49791,16 +50064,16 @@
     </row>
     <row r="41">
       <c r="A41" s="84" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D41" s="84" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>58</v>
@@ -49832,16 +50105,16 @@
     </row>
     <row r="42">
       <c r="A42" s="84" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D42" s="84" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>58</v>
@@ -49873,7 +50146,7 @@
     </row>
     <row r="43">
       <c r="A43" s="84" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>76</v>
@@ -49882,7 +50155,7 @@
         <v>3.0</v>
       </c>
       <c r="D43" s="57" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>58</v>
@@ -49914,7 +50187,7 @@
     </row>
     <row r="44">
       <c r="A44" s="84" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>76</v>
@@ -49923,7 +50196,7 @@
         <v>115</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>58</v>
@@ -49955,16 +50228,16 @@
     </row>
     <row r="45">
       <c r="A45" s="84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C45" s="93" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D45" s="84" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>58</v>
@@ -49996,7 +50269,7 @@
     </row>
     <row r="46">
       <c r="A46" s="52" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>44</v>
@@ -50005,10 +50278,10 @@
         <v>48</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>50</v>
@@ -50037,7 +50310,7 @@
     </row>
     <row r="47">
       <c r="A47" s="52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>44</v>
@@ -50046,7 +50319,7 @@
         <v>48</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>58</v>
@@ -50078,7 +50351,7 @@
     </row>
     <row r="48">
       <c r="A48" s="52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>44</v>
@@ -50087,10 +50360,10 @@
         <v>48</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>50</v>
@@ -50119,7 +50392,7 @@
     </row>
     <row r="49">
       <c r="A49" s="52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>44</v>
@@ -50160,7 +50433,7 @@
     </row>
     <row r="50">
       <c r="A50" s="52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>44</v>
@@ -50201,7 +50474,7 @@
     </row>
     <row r="51">
       <c r="A51" s="52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>44</v>
@@ -50242,7 +50515,7 @@
     </row>
     <row r="52">
       <c r="A52" s="52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>147</v>
@@ -50283,7 +50556,7 @@
     </row>
     <row r="53">
       <c r="A53" s="52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>44</v>
@@ -50292,7 +50565,7 @@
         <v>48</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>58</v>
@@ -50324,7 +50597,7 @@
     </row>
     <row r="54">
       <c r="A54" s="52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>147</v>
@@ -50365,7 +50638,7 @@
     </row>
     <row r="55">
       <c r="A55" s="52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>44</v>
@@ -50406,7 +50679,7 @@
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>44</v>
@@ -50447,7 +50720,7 @@
     </row>
     <row r="57">
       <c r="A57" s="52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>44</v>
@@ -50456,7 +50729,7 @@
         <v>48</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>58</v>
@@ -50488,7 +50761,7 @@
     </row>
     <row r="58">
       <c r="A58" s="52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>44</v>
@@ -50497,7 +50770,7 @@
         <v>48</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>58</v>
@@ -50529,7 +50802,7 @@
     </row>
     <row r="59">
       <c r="A59" s="52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>44</v>
@@ -50538,7 +50811,7 @@
         <v>48</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>58</v>
@@ -50570,7 +50843,7 @@
     </row>
     <row r="60">
       <c r="A60" s="52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>44</v>
@@ -50579,7 +50852,7 @@
         <v>48</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>58</v>
@@ -50611,7 +50884,7 @@
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>44</v>
@@ -50620,10 +50893,10 @@
         <v>48</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>50</v>
@@ -50652,7 +50925,7 @@
     </row>
     <row r="62" ht="18.75" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>44</v>
@@ -50661,7 +50934,7 @@
         <v>48</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>10</v>
@@ -50693,7 +50966,7 @@
     </row>
     <row r="63">
       <c r="A63" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>44</v>
@@ -50702,7 +50975,7 @@
         <v>48</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>10</v>
@@ -50734,7 +51007,7 @@
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>44</v>
@@ -50743,10 +51016,10 @@
         <v>48</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>50</v>
@@ -50775,7 +51048,7 @@
     </row>
     <row r="65">
       <c r="A65" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>147</v>
@@ -50784,10 +51057,10 @@
         <v>48</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>50</v>
@@ -50816,7 +51089,7 @@
     </row>
     <row r="66">
       <c r="A66" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>147</v>
@@ -50825,7 +51098,7 @@
         <v>48</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>58</v>
@@ -50857,7 +51130,7 @@
     </row>
     <row r="67">
       <c r="A67" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>147</v>
@@ -50866,7 +51139,7 @@
         <v>48</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>58</v>
@@ -50898,7 +51171,7 @@
     </row>
     <row r="68">
       <c r="A68" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>44</v>
@@ -50907,7 +51180,7 @@
         <v>48</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>58</v>
@@ -50939,7 +51212,7 @@
     </row>
     <row r="69">
       <c r="A69" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>147</v>
@@ -50948,7 +51221,7 @@
         <v>48</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>58</v>
@@ -50980,7 +51253,7 @@
     </row>
     <row r="70">
       <c r="A70" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>147</v>
@@ -50989,7 +51262,7 @@
         <v>48</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>58</v>
@@ -51021,7 +51294,7 @@
     </row>
     <row r="71">
       <c r="A71" s="62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B71" s="44" t="s">
         <v>7</v>
@@ -51062,7 +51335,7 @@
     </row>
     <row r="72">
       <c r="A72" s="62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B72" s="44" t="s">
         <v>7</v>
@@ -51103,7 +51376,7 @@
     </row>
     <row r="73">
       <c r="A73" s="62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B73" s="44" t="s">
         <v>7</v>
@@ -51144,7 +51417,7 @@
     </row>
     <row r="74">
       <c r="A74" s="62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B74" s="44" t="s">
         <v>7</v>
@@ -51185,13 +51458,13 @@
     </row>
     <row r="75">
       <c r="A75" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>113</v>
@@ -51205,13 +51478,13 @@
     </row>
     <row r="76">
       <c r="A76" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>116</v>
@@ -51225,7 +51498,7 @@
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>44</v>
@@ -51245,7 +51518,7 @@
     </row>
     <row r="78">
       <c r="A78" s="34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>44</v>
@@ -51286,7 +51559,7 @@
     </row>
     <row r="79" ht="18.75" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>44</v>
@@ -51295,7 +51568,7 @@
         <v>48</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>10</v>
@@ -51327,7 +51600,7 @@
     </row>
     <row r="80">
       <c r="A80" s="52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>7</v>
@@ -51336,7 +51609,7 @@
         <v>48</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>58</v>
@@ -51367,16 +51640,16 @@
     </row>
     <row r="81">
       <c r="A81" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B81" s="75" t="s">
         <v>44</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>10</v>
@@ -51408,7 +51681,7 @@
     </row>
     <row r="82">
       <c r="A82" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B82" s="75" t="s">
         <v>44</v>
@@ -51417,7 +51690,7 @@
         <v>58</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>10</v>
@@ -51489,7 +51762,7 @@
     </row>
     <row r="84">
       <c r="A84" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>44</v>
@@ -51509,7 +51782,7 @@
     </row>
     <row r="85">
       <c r="A85" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>44</v>
@@ -51529,16 +51802,16 @@
     </row>
     <row r="86">
       <c r="A86" s="73" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C86" s="70" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>58</v>
@@ -51549,7 +51822,7 @@
     </row>
     <row r="87">
       <c r="A87" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>44</v>
@@ -51569,7 +51842,7 @@
     </row>
     <row r="88">
       <c r="A88" s="94" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B88" s="75" t="s">
         <v>44</v>
@@ -51609,16 +51882,16 @@
     </row>
     <row r="89">
       <c r="A89" s="74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B89" s="75" t="s">
         <v>76</v>
       </c>
       <c r="C89" s="56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>58</v>
@@ -51649,16 +51922,16 @@
     </row>
     <row r="90">
       <c r="A90" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C90" s="59" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>58</v>
@@ -51669,16 +51942,16 @@
     </row>
     <row r="91">
       <c r="A91" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B91" s="95" t="s">
         <v>76</v>
       </c>
       <c r="C91" s="42" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E91" s="96" t="s">
         <v>58</v>
@@ -51710,7 +51983,7 @@
     </row>
     <row r="92">
       <c r="A92" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>44</v>
@@ -51719,7 +51992,7 @@
         <v>48</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>58</v>
@@ -51730,7 +52003,7 @@
     </row>
     <row r="93">
       <c r="A93" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>44</v>
@@ -51739,7 +52012,7 @@
         <v>48</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>58</v>
@@ -51750,7 +52023,7 @@
     </row>
     <row r="94">
       <c r="A94" s="72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>76</v>
@@ -51770,16 +52043,16 @@
     </row>
     <row r="95">
       <c r="A95" s="72" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C95" s="98" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D95" s="72" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>58</v>
@@ -51789,10 +52062,44 @@
       </c>
     </row>
     <row r="96">
-      <c r="C96" s="54"/>
+      <c r="A96" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="72" t="s">
+        <v>343</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="97">
-      <c r="C97" s="54"/>
+      <c r="A97" s="72" t="s">
+        <v>345</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="72" t="s">
+        <v>346</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="98">
       <c r="C98" s="54"/>
@@ -54280,9 +54587,6 @@
     </row>
     <row r="926">
       <c r="C926" s="54"/>
-    </row>
-    <row r="927">
-      <c r="C927" s="54"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -54687,7 +54991,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>36</v>
@@ -54881,7 +55185,7 @@
     </row>
     <row r="15">
       <c r="A15" s="101" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B15" s="71" t="s">
         <v>44</v>
@@ -54901,7 +55205,7 @@
     </row>
     <row r="16">
       <c r="A16" s="102" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" s="103" t="s">
         <v>44</v>
@@ -54942,16 +55246,16 @@
     </row>
     <row r="17">
       <c r="A17" s="104" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B17" s="103" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="104" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E17" s="47" t="s">
         <v>10</v>
@@ -54983,16 +55287,16 @@
     </row>
     <row r="18">
       <c r="A18" s="104" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" s="103" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="105" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>10</v>
@@ -55024,16 +55328,16 @@
     </row>
     <row r="19">
       <c r="A19" s="43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E19" s="47" t="s">
         <v>10</v>
@@ -55065,7 +55369,7 @@
     </row>
     <row r="20">
       <c r="A20" s="52" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>7</v>
@@ -55074,10 +55378,10 @@
         <v>48</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>50</v>
@@ -55106,7 +55410,7 @@
     </row>
     <row r="21">
       <c r="A21" s="52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>7</v>
@@ -55115,7 +55419,7 @@
         <v>48</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>58</v>
@@ -55147,7 +55451,7 @@
     </row>
     <row r="22">
       <c r="A22" s="52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>7</v>
@@ -55156,10 +55460,10 @@
         <v>48</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>50</v>
@@ -55188,7 +55492,7 @@
     </row>
     <row r="23">
       <c r="A23" s="52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>7</v>
@@ -55229,7 +55533,7 @@
     </row>
     <row r="24">
       <c r="A24" s="52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>7</v>
@@ -55238,7 +55542,7 @@
         <v>48</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>10</v>
@@ -55270,7 +55574,7 @@
     </row>
     <row r="25">
       <c r="A25" s="52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>7</v>
@@ -55311,16 +55615,16 @@
     </row>
     <row r="26">
       <c r="A26" s="74" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>58</v>
@@ -55352,16 +55656,16 @@
     </row>
     <row r="27">
       <c r="A27" s="56" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D27" s="56" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>10</v>
@@ -55393,16 +55697,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>10</v>
@@ -55434,7 +55738,7 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>7</v>
@@ -55443,7 +55747,7 @@
         <v>58</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>10</v>
@@ -55475,16 +55779,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>10</v>
@@ -55516,16 +55820,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>10</v>
@@ -55557,16 +55861,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>10</v>
@@ -55598,7 +55902,7 @@
     </row>
     <row r="33">
       <c r="A33" s="79" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B33" s="80" t="s">
         <v>44</v>
@@ -55607,10 +55911,10 @@
         <v>48</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F33" s="68" t="s">
         <v>50</v>
@@ -55639,7 +55943,7 @@
     </row>
     <row r="34">
       <c r="A34" s="79" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B34" s="80" t="s">
         <v>147</v>
@@ -55648,10 +55952,10 @@
         <v>48</v>
       </c>
       <c r="D34" s="79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F34" s="68" t="s">
         <v>50</v>
@@ -60865,7 +61169,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>36</v>
@@ -61059,7 +61363,7 @@
     </row>
     <row r="15">
       <c r="A15" s="101" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B15" s="71" t="s">
         <v>44</v>
@@ -61079,16 +61383,16 @@
     </row>
     <row r="16">
       <c r="A16" s="55" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>58</v>
@@ -61120,7 +61424,7 @@
     </row>
     <row r="17">
       <c r="A17" s="58" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>44</v>
@@ -61140,7 +61444,7 @@
     </row>
     <row r="18">
       <c r="A18" s="56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>44</v>
@@ -61160,7 +61464,7 @@
     </row>
     <row r="19">
       <c r="A19" s="56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>76</v>
@@ -61169,7 +61473,7 @@
         <v>77</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>58</v>
@@ -61180,7 +61484,7 @@
     </row>
     <row r="20">
       <c r="A20" s="56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>76</v>
@@ -61200,7 +61504,7 @@
     </row>
     <row r="21">
       <c r="A21" s="57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>76</v>
@@ -61241,7 +61545,7 @@
     </row>
     <row r="22">
       <c r="A22" s="43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>44</v>
@@ -61282,7 +61586,7 @@
     </row>
     <row r="23">
       <c r="A23" s="49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>44</v>
@@ -61323,7 +61627,7 @@
     </row>
     <row r="24">
       <c r="A24" s="60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>76</v>
@@ -61364,7 +61668,7 @@
     </row>
     <row r="25">
       <c r="A25" s="89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B25" s="44" t="s">
         <v>76</v>
@@ -61405,7 +61709,7 @@
     </row>
     <row r="26">
       <c r="A26" s="60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B26" s="44" t="s">
         <v>76</v>
@@ -61446,7 +61750,7 @@
     </row>
     <row r="27">
       <c r="A27" s="49" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" s="44" t="s">
         <v>7</v>
@@ -61455,7 +61759,7 @@
         <v>231800.0</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>58</v>
@@ -61487,16 +61791,16 @@
     </row>
     <row r="28">
       <c r="A28" s="49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E28" s="47" t="s">
         <v>58</v>
@@ -61528,16 +61832,16 @@
     </row>
     <row r="29">
       <c r="A29" s="41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>58</v>
@@ -61548,7 +61852,7 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>44</v>
@@ -61557,7 +61861,7 @@
         <v>231800.0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>58</v>
@@ -61568,16 +61872,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D31" s="56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>58</v>
@@ -61588,16 +61892,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>58</v>
@@ -61608,7 +61912,7 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>44</v>
@@ -61617,7 +61921,7 @@
         <v>200000.0</v>
       </c>
       <c r="D33" s="56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>58</v>
@@ -61628,16 +61932,16 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>58</v>
@@ -61648,16 +61952,16 @@
     </row>
     <row r="35">
       <c r="A35" s="49" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B35" s="44" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E35" s="47" t="s">
         <v>58</v>
@@ -61689,16 +61993,16 @@
     </row>
     <row r="36">
       <c r="A36" s="60" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B36" s="44" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="60" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D36" s="89" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E36" s="47" t="s">
         <v>58</v>
@@ -61730,16 +62034,16 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>58</v>
@@ -61750,16 +62054,16 @@
     </row>
     <row r="38">
       <c r="A38" s="90" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D38" s="91" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>58</v>
@@ -61770,16 +62074,16 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>58</v>
@@ -61790,16 +62094,16 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>58</v>
@@ -61810,7 +62114,7 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>76</v>
@@ -61819,7 +62123,7 @@
         <v>46360.0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>58</v>
@@ -61830,16 +62134,16 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C42" s="70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D42" s="56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>58</v>
@@ -61850,16 +62154,16 @@
     </row>
     <row r="43">
       <c r="A43" s="84" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="88" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D43" s="84" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>58</v>
@@ -61891,16 +62195,16 @@
     </row>
     <row r="44">
       <c r="A44" s="84" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="88" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D44" s="84" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>58</v>
@@ -61932,7 +62236,7 @@
     </row>
     <row r="45">
       <c r="A45" s="84" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>76</v>
@@ -61941,7 +62245,7 @@
         <v>0.03</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>58</v>
@@ -61973,7 +62277,7 @@
     </row>
     <row r="46">
       <c r="A46" s="84" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>76</v>
@@ -61982,7 +62286,7 @@
         <v>115</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>58</v>
@@ -62014,16 +62318,16 @@
     </row>
     <row r="47">
       <c r="A47" s="84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C47" s="93" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D47" s="84" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>58</v>
@@ -62055,7 +62359,7 @@
     </row>
     <row r="48">
       <c r="A48" s="52" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>7</v>
@@ -62064,10 +62368,10 @@
         <v>48</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>50</v>
@@ -62096,7 +62400,7 @@
     </row>
     <row r="49">
       <c r="A49" s="52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>7</v>
@@ -62105,7 +62409,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>58</v>
@@ -62137,7 +62441,7 @@
     </row>
     <row r="50">
       <c r="A50" s="52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>7</v>
@@ -62146,10 +62450,10 @@
         <v>48</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>50</v>
@@ -62178,7 +62482,7 @@
     </row>
     <row r="51">
       <c r="A51" s="52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>7</v>
@@ -62219,7 +62523,7 @@
     </row>
     <row r="52">
       <c r="A52" s="52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>76</v>
@@ -62260,7 +62564,7 @@
     </row>
     <row r="53">
       <c r="A53" s="52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>7</v>
@@ -62269,7 +62573,7 @@
         <v>48</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>58</v>
@@ -62301,7 +62605,7 @@
     </row>
     <row r="54">
       <c r="A54" s="52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>147</v>
@@ -62342,7 +62646,7 @@
     </row>
     <row r="55">
       <c r="A55" s="52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>7</v>
@@ -62351,7 +62655,7 @@
         <v>48</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>58</v>
@@ -62383,7 +62687,7 @@
     </row>
     <row r="56">
       <c r="A56" s="52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>7</v>
@@ -62392,7 +62696,7 @@
         <v>48</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>58</v>
@@ -62424,7 +62728,7 @@
     </row>
     <row r="57">
       <c r="A57" s="52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>7</v>
@@ -62433,7 +62737,7 @@
         <v>48</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>58</v>
@@ -62465,7 +62769,7 @@
     </row>
     <row r="58">
       <c r="A58" s="52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>7</v>
@@ -62474,7 +62778,7 @@
         <v>48</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>58</v>
@@ -62506,7 +62810,7 @@
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>7</v>
@@ -62515,10 +62819,10 @@
         <v>48</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>50</v>
@@ -62547,7 +62851,7 @@
     </row>
     <row r="60" ht="18.75" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>7</v>
@@ -62556,7 +62860,7 @@
         <v>48</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>10</v>
@@ -62588,7 +62892,7 @@
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>7</v>
@@ -62597,7 +62901,7 @@
         <v>48</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>10</v>
@@ -62629,7 +62933,7 @@
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>7</v>
@@ -62638,10 +62942,10 @@
         <v>48</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>50</v>
@@ -62670,7 +62974,7 @@
     </row>
     <row r="63">
       <c r="A63" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>147</v>
@@ -62679,10 +62983,10 @@
         <v>48</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>50</v>
@@ -62711,7 +63015,7 @@
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>147</v>
@@ -62720,7 +63024,7 @@
         <v>48</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>58</v>
@@ -62752,7 +63056,7 @@
     </row>
     <row r="65">
       <c r="A65" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>147</v>
@@ -62761,7 +63065,7 @@
         <v>48</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>58</v>
@@ -62793,7 +63097,7 @@
     </row>
     <row r="66">
       <c r="A66" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>7</v>
@@ -62802,7 +63106,7 @@
         <v>48</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>58</v>
@@ -62834,7 +63138,7 @@
     </row>
     <row r="67">
       <c r="A67" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>147</v>
@@ -62843,7 +63147,7 @@
         <v>48</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>58</v>
@@ -62875,7 +63179,7 @@
     </row>
     <row r="68">
       <c r="A68" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>147</v>
@@ -62884,7 +63188,7 @@
         <v>48</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>58</v>
@@ -62916,7 +63220,7 @@
     </row>
     <row r="69" ht="18.75" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>7</v>
@@ -62925,7 +63229,7 @@
         <v>48</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>10</v>
@@ -62957,7 +63261,7 @@
     </row>
     <row r="70">
       <c r="A70" s="52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>7</v>
@@ -62966,7 +63270,7 @@
         <v>48</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>58</v>
@@ -62998,16 +63302,16 @@
     </row>
     <row r="71">
       <c r="A71" s="72" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="70" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>58</v>
@@ -63018,16 +63322,16 @@
     </row>
     <row r="72">
       <c r="A72" s="72" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="70" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>58</v>
@@ -63038,16 +63342,16 @@
     </row>
     <row r="73">
       <c r="A73" s="72" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="70" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>58</v>
@@ -63058,16 +63362,16 @@
     </row>
     <row r="74">
       <c r="A74" s="72" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="70" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>58</v>
@@ -63078,16 +63382,16 @@
     </row>
     <row r="75">
       <c r="A75" s="72" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="70" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>58</v>
@@ -63098,16 +63402,16 @@
     </row>
     <row r="76">
       <c r="A76" s="72" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="107" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>58</v>
@@ -63118,7 +63422,7 @@
     </row>
     <row r="77">
       <c r="A77" s="9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>7</v>
@@ -63127,7 +63431,7 @@
         <v>48</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>58</v>
@@ -63159,7 +63463,7 @@
     </row>
     <row r="78">
       <c r="A78" s="9" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>7</v>
@@ -63168,7 +63472,7 @@
         <v>48</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>58</v>
@@ -63200,16 +63504,16 @@
     </row>
     <row r="79">
       <c r="A79" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B79" s="75" t="s">
         <v>44</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>10</v>
@@ -63241,7 +63545,7 @@
     </row>
     <row r="80">
       <c r="A80" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B80" s="75" t="s">
         <v>44</v>
@@ -63250,7 +63554,7 @@
         <v>58</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>10</v>
@@ -63322,16 +63626,16 @@
     </row>
     <row r="82">
       <c r="A82" s="56" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B82" s="75" t="s">
         <v>44</v>
       </c>
       <c r="C82" s="56" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D82" s="56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>58</v>
@@ -63363,7 +63667,7 @@
     </row>
     <row r="83">
       <c r="A83" s="56" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B83" s="75" t="s">
         <v>44</v>
@@ -63372,7 +63676,7 @@
         <v>48</v>
       </c>
       <c r="D83" s="56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>58</v>
@@ -63404,7 +63708,7 @@
     </row>
     <row r="84">
       <c r="A84" s="72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>76</v>
@@ -63424,16 +63728,16 @@
     </row>
     <row r="85">
       <c r="A85" s="74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B85" s="75" t="s">
         <v>76</v>
       </c>
       <c r="C85" s="56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D85" s="56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>58</v>
@@ -63464,16 +63768,16 @@
     </row>
     <row r="86">
       <c r="A86" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B86" s="95" t="s">
         <v>76</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E86" s="96" t="s">
         <v>58</v>
@@ -63505,16 +63809,16 @@
     </row>
     <row r="87">
       <c r="A87" s="72" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C87" s="98" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D87" s="72" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>58</v>
@@ -63525,7 +63829,7 @@
     </row>
     <row r="88">
       <c r="A88" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>44</v>
@@ -63542,6 +63846,129 @@
       <c r="F88" s="3" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="109" t="s">
+        <v>344</v>
+      </c>
+      <c r="B89" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="109" t="s">
+        <v>343</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="109" t="s">
+        <v>345</v>
+      </c>
+      <c r="B90" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="109" t="s">
+        <v>346</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -63926,7 +64353,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>36</v>
@@ -64120,16 +64547,16 @@
     </row>
     <row r="15">
       <c r="A15" s="69" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -64139,17 +64566,17 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="109" t="s">
-        <v>373</v>
+      <c r="A16" s="110" t="s">
+        <v>378</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>10</v>
